--- a/CozinhaDoGuerreiro.xlsx
+++ b/CozinhaDoGuerreiro.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betinho\Desktop\wwwHumbertoEscultor\util\Contas\CozinhaDoGuerreiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8CC53E-A2AD-4B7D-83AA-73EAC44DF429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E27C1-9ED1-4809-A9C8-32E96C45D1DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="5220" xr2:uid="{4DFC12C3-1577-4B4B-A6AD-2C5890B8F300}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="fogão de lenha" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,17 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>fogão de lenha</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>areia ensacada</t>
+  </si>
+  <si>
+    <t>cimento</t>
+  </si>
+  <si>
+    <t>colher de pedreiro</t>
+  </si>
+  <si>
+    <t>produto</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>unitário</t>
+  </si>
+  <si>
+    <t>unidade</t>
+  </si>
+  <si>
+    <t>preço</t>
+  </si>
+  <si>
+    <t>sacos</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -51,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,13 +97,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -83,6 +139,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108B3459-9D8A-43B6-BA75-66AB4B887FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="1447800"/>
+          <a:ext cx="7543800" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,24 +493,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D80CD4-569E-4888-B34D-48D6D7863582}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4">
+        <f>SUM(E:E)</f>
+        <v>109.96999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2*C2</f>
+        <v>71.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E4" si="0">B3*C3</f>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>24.49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>24.49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CozinhaDoGuerreiro.xlsx
+++ b/CozinhaDoGuerreiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betinho\Desktop\wwwHumbertoEscultor\util\Contas\CozinhaDoGuerreiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E27C1-9ED1-4809-A9C8-32E96C45D1DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA7297-6844-4983-895C-16D3A47E74E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="5220" xr2:uid="{4DFC12C3-1577-4B4B-A6AD-2C5890B8F300}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
